--- a/tacomia.xlsx
+++ b/tacomia.xlsx
@@ -1105,7 +1105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,54 +1135,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Pork Alarm</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>90</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Chef Hat</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>180</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Viking Helmet</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>300</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tacomia.xlsx
+++ b/tacomia.xlsx
@@ -1105,7 +1105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,6 +1135,502 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Guac Poster</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Beans Poster</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cactus</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Small Plant</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mystery Poster</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Burgeria Poster</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hard Taco Sign</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Soft Taco Sign</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pita Sign</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Desert Plant</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Leafy Plant</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Onion Ring Poster</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pepper Lights</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Coffee Stand</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>65</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Newspaper Stand</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>80</v>
+      </c>
+      <c r="C16" t="n">
+        <v>17</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hypno Clock</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80</v>
+      </c>
+      <c r="C17" t="n">
+        <v>26</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Gumball Machine</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>120</v>
+      </c>
+      <c r="C18" t="n">
+        <v>19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ceiling Fan</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>150</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>150</v>
+      </c>
+      <c r="C20" t="n">
+        <v>16</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Arcade Cabinet</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>400</v>
+      </c>
+      <c r="C21" t="n">
+        <v>18</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jukebox</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>500</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Doorbell</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>30</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Taco Hat</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Beef Alarm</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>90</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chicken Alarm</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>90</v>
+      </c>
+      <c r="C26" t="n">
+        <v>23</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Pork Alarm</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>90</v>
+      </c>
+      <c r="C27" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Steak Alarm</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>90</v>
+      </c>
+      <c r="C28" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sombrero</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>120</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chef Hat</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>180</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Viking Helmet</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>300</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Royal Crown</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tacomia.xlsx
+++ b/tacomia.xlsx
@@ -1421,7 +1421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1451,6 +1451,566 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Taco Hat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>60</v>
+      </c>
+      <c r="C2" t="n">
+        <v>31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gold Spatula</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gold Knife</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sombrero</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>120</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Extra Burner</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>150</v>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Extra Burner 2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Small Plant</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hard Taco Sign</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Soft Taco Sign</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pita Sign</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chef Hat</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>180</v>
+      </c>
+      <c r="C12" t="n">
+        <v>33</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Romano Poster</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Viking Helmet</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>300</v>
+      </c>
+      <c r="C14" t="n">
+        <v>34</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Beans Poster</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Cactus</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mystery Poster</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Burgeria Poster</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Desert Plant</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Leafy Plant</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>40</v>
+      </c>
+      <c r="C20" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Onion Ring Poster</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>50</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pepper Lights</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>60</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Coffee Stand</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>65</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Newspaper Stand</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>80</v>
+      </c>
+      <c r="C24" t="n">
+        <v>19</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hypno Clock</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>80</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Gumball Machine</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>120</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ceiling Fan</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>150</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>150</v>
+      </c>
+      <c r="C28" t="n">
+        <v>18</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Arcade Cabinet</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>400</v>
+      </c>
+      <c r="C29" t="n">
+        <v>20</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jukebox</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>500</v>
+      </c>
+      <c r="C30" t="n">
+        <v>22</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Royal Crown</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C31" t="n">
+        <v>35</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Doorbell</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Beef Alarm</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>90</v>
+      </c>
+      <c r="C33" t="n">
+        <v>24</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chicken Alarm</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>90</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Pork Alarm</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>90</v>
+      </c>
+      <c r="C35" t="n">
+        <v>26</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Steak Alarm</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>90</v>
+      </c>
+      <c r="C36" t="n">
+        <v>27</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tacomia.xlsx
+++ b/tacomia.xlsx
@@ -1421,7 +1421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1454,560 +1454,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Taco Hat</t>
+          <t>Pepper Lights</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gold Spatula</t>
+          <t>Coffee Stand</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gold Knife</t>
+          <t>Newspaper Stand</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sombrero</t>
+          <t>Hypno Clock</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Extra Burner</t>
+          <t>Gumball Machine</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Extra Burner 2</t>
+          <t>Ceiling Fan</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Small Plant</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hard Taco Sign</t>
+          <t>Arcade Cabinet</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Soft Taco Sign</t>
+          <t>Jukebox</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>500</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pita Sign</t>
+          <t>Royal Crown</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chef Hat</t>
+          <t>Doorbell</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Romano Poster</t>
+          <t>Beef Alarm</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Viking Helmet</t>
+          <t>Chicken Alarm</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Beans Poster</t>
+          <t>Pork Alarm</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>90</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" t="n">
         <v>8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cactus</t>
+          <t>Steak Alarm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mystery Poster</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>20</v>
-      </c>
-      <c r="C17" t="n">
-        <v>10</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Burgeria Poster</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>20</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Desert Plant</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>25</v>
-      </c>
-      <c r="C19" t="n">
-        <v>15</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Leafy Plant</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>40</v>
-      </c>
-      <c r="C20" t="n">
-        <v>17</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Onion Ring Poster</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>50</v>
-      </c>
-      <c r="C21" t="n">
-        <v>13</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Pepper Lights</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>60</v>
-      </c>
-      <c r="C22" t="n">
-        <v>7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Coffee Stand</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>65</v>
-      </c>
-      <c r="C23" t="n">
-        <v>23</v>
-      </c>
-      <c r="D23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Newspaper Stand</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>80</v>
-      </c>
-      <c r="C24" t="n">
-        <v>19</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Hypno Clock</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>80</v>
-      </c>
-      <c r="C25" t="n">
-        <v>30</v>
-      </c>
-      <c r="D25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Gumball Machine</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>120</v>
-      </c>
-      <c r="C26" t="n">
-        <v>21</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Ceiling Fan</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>150</v>
-      </c>
-      <c r="C27" t="n">
-        <v>14</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>150</v>
-      </c>
-      <c r="C28" t="n">
-        <v>18</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Arcade Cabinet</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>400</v>
-      </c>
-      <c r="C29" t="n">
-        <v>20</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Jukebox</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>500</v>
-      </c>
-      <c r="C30" t="n">
-        <v>22</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Royal Crown</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C31" t="n">
-        <v>35</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Doorbell</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>30</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Beef Alarm</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>90</v>
-      </c>
-      <c r="C33" t="n">
-        <v>24</v>
-      </c>
-      <c r="D33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Chicken Alarm</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>90</v>
-      </c>
-      <c r="C34" t="n">
-        <v>25</v>
-      </c>
-      <c r="D34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Pork Alarm</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>90</v>
-      </c>
-      <c r="C35" t="n">
-        <v>26</v>
-      </c>
-      <c r="D35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Steak Alarm</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>90</v>
-      </c>
-      <c r="C36" t="n">
-        <v>27</v>
-      </c>
-      <c r="D36" t="n">
         <v>8</v>
       </c>
     </row>

--- a/tacomia.xlsx
+++ b/tacomia.xlsx
@@ -72,6 +72,102 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -84,102 +180,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -197,14 +197,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -216,13 +216,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -245,31 +245,6 @@
         <sz val="10"/>
         <vertAlign val="baseline"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-      <border outline="0">
-        <left style="medium">
-          <color rgb="FFCCCCCC"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFCCCCCC"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="10"/>
-        <vertAlign val="baseline"/>
-      </font>
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
       <border>
         <left style="medium">
@@ -386,6 +361,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="medium">
+          <color rgb="FFCCCCCC"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFCCCCCC"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFCCCCCC"/>
+        </top>
         <bottom style="medium">
           <color rgb="FFCCCCCC"/>
         </bottom>
@@ -393,18 +377,34 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="medium">
+          <color rgb="FFCCCCCC"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="10"/>
+        <vertAlign val="baseline"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+      <border outline="0">
         <left style="medium">
           <color rgb="FFCCCCCC"/>
         </left>
         <right style="medium">
           <color rgb="FFCCCCCC"/>
         </right>
-        <top style="medium">
-          <color rgb="FFCCCCCC"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFCCCCCC"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -481,16 +481,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D37" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D37" headerRowCount="1" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D37"/>
   <sortState ref="A2:D37">
     <sortCondition ref="D1:D37"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Item" dataDxfId="4"/>
-    <tableColumn id="2" name="Cost" dataDxfId="3"/>
-    <tableColumn id="3" name="Slot" dataDxfId="2"/>
-    <tableColumn id="4" name="Priority" dataDxfId="1"/>
+    <tableColumn id="1" name="Item" dataDxfId="3"/>
+    <tableColumn id="2" name="Cost" dataDxfId="2"/>
+    <tableColumn id="3" name="Slot" dataDxfId="1"/>
+    <tableColumn id="4" name="Priority" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -799,8 +799,8 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -809,29 +809,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Item</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Cost</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Slot</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Gold Spatula</t>
         </is>
@@ -842,12 +842,12 @@
       <c r="C2" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Gold Knife</t>
         </is>
@@ -858,12 +858,12 @@
       <c r="C3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" thickBot="1">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Taco Hat</t>
         </is>
@@ -874,12 +874,12 @@
       <c r="C4" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" thickBot="1">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Sombrero</t>
         </is>
@@ -890,12 +890,12 @@
       <c r="C5" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Extra Burner</t>
         </is>
@@ -906,12 +906,12 @@
       <c r="C6" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>3</v>
+      <c r="D6" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" thickBot="1">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Extra Burner 2</t>
         </is>
@@ -922,12 +922,12 @@
       <c r="C7" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>3</v>
+      <c r="D7" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Guac Poster</t>
         </is>
@@ -938,12 +938,12 @@
       <c r="C8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9" ht="27" customHeight="1" thickBot="1">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Hard Taco Sign</t>
         </is>
@@ -954,12 +954,12 @@
       <c r="C9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" thickBot="1">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Soft Taco Sign</t>
         </is>
@@ -970,12 +970,12 @@
       <c r="C10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="n">
+      <c r="D10" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" thickBot="1">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Pita Sign</t>
         </is>
@@ -986,12 +986,12 @@
       <c r="C11" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="n">
+      <c r="D11" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" ht="27" customHeight="1" thickBot="1">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Small Plant</t>
         </is>
@@ -1002,12 +1002,12 @@
       <c r="C12" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="3" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" thickBot="1">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Chef Hat</t>
         </is>
@@ -1018,12 +1018,12 @@
       <c r="C13" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="3" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" thickBot="1">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Romano Poster</t>
         </is>
@@ -1034,12 +1034,12 @@
       <c r="C14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="n">
+      <c r="D14" s="3" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="15" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Viking Helmet</t>
         </is>
@@ -1050,12 +1050,12 @@
       <c r="C15" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="3" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" thickBot="1">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Cactus</t>
         </is>
@@ -1066,12 +1066,12 @@
       <c r="C16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="17" ht="27" customHeight="1" thickBot="1">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Beans Poster</t>
         </is>
@@ -1082,12 +1082,12 @@
       <c r="C17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" thickBot="1">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Pepper Lights</t>
         </is>
@@ -1098,12 +1098,12 @@
       <c r="C18" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D18" s="4" t="n">
+      <c r="D18" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="19" ht="27" customHeight="1" thickBot="1">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Mystery Poster</t>
         </is>
@@ -1114,12 +1114,12 @@
       <c r="C19" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Burgeria Poster</t>
         </is>
@@ -1130,12 +1130,12 @@
       <c r="C20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D20" s="4" t="n">
+      <c r="D20" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="21" ht="27" customHeight="1" thickBot="1">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>Onion Ring Poster</t>
         </is>
@@ -1146,12 +1146,12 @@
       <c r="C21" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="22" ht="27" customHeight="1" thickBot="1">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Ceiling Fan</t>
         </is>
@@ -1162,12 +1162,12 @@
       <c r="C22" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1" thickBot="1">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Desert Plant</t>
         </is>
@@ -1178,12 +1178,12 @@
       <c r="C23" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="D23" s="4" t="n">
+      <c r="D23" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Leafy Plant</t>
         </is>
@@ -1194,12 +1194,12 @@
       <c r="C24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1" thickBot="1">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
@@ -1210,12 +1210,12 @@
       <c r="C25" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D25" s="4" t="n">
+      <c r="D25" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1" thickBot="1">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Newspaper Stand</t>
         </is>
@@ -1226,12 +1226,12 @@
       <c r="C26" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D26" s="4" t="n">
+      <c r="D26" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1" thickBot="1">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Arcade Cabinet</t>
         </is>
@@ -1242,12 +1242,12 @@
       <c r="C27" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="28" ht="27" customHeight="1" thickBot="1">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Gumball Machine</t>
         </is>
@@ -1258,12 +1258,12 @@
       <c r="C28" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D28" s="4" t="n">
+      <c r="D28" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="29" ht="27" customHeight="1" thickBot="1">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>Jukebox</t>
         </is>
@@ -1274,12 +1274,12 @@
       <c r="C29" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="D29" s="4" t="n">
+      <c r="D29" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="30" ht="27" customHeight="1" thickBot="1">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Coffee Stand</t>
         </is>
@@ -1290,12 +1290,12 @@
       <c r="C30" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D30" s="4" t="n">
+      <c r="D30" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="31" ht="27" customHeight="1" thickBot="1">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Hypno Clock</t>
         </is>
@@ -1306,12 +1306,12 @@
       <c r="C31" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="D31" s="4" t="n">
+      <c r="D31" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1" thickBot="1">
-      <c r="A32" s="3" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>Royal Crown</t>
         </is>
@@ -1322,12 +1322,12 @@
       <c r="C32" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="D32" s="4" t="n">
+      <c r="D32" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>Doorbell</t>
         </is>
@@ -1338,12 +1338,12 @@
       <c r="C33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="4" t="n">
+      <c r="D33" s="3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="3" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>Beef Alarm</t>
         </is>
@@ -1354,12 +1354,12 @@
       <c r="C34" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D34" s="4" t="n">
+      <c r="D34" s="3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="3" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>Chicken Alarm</t>
         </is>
@@ -1370,12 +1370,12 @@
       <c r="C35" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="D35" s="4" t="n">
+      <c r="D35" s="3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="36" ht="27" customHeight="1" thickBot="1">
-      <c r="A36" s="3" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>Pork Alarm</t>
         </is>
@@ -1386,23 +1386,23 @@
       <c r="C36" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="D36" s="4" t="n">
+      <c r="D36" s="3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="37" ht="27" customHeight="1">
-      <c r="A37" s="8" t="inlineStr">
+      <c r="A37" s="7" t="inlineStr">
         <is>
           <t>Steak Alarm</t>
         </is>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="8" t="n">
         <v>90</v>
       </c>
-      <c r="C37" s="9" t="n">
+      <c r="C37" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1454,240 +1454,576 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pepper Lights</t>
+          <t>Taco Hat</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Coffee Stand</t>
+          <t>Gold Spatula</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Newspaper Stand</t>
+          <t>Gold Knife</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hypno Clock</t>
+          <t>Sombrero</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gumball Machine</t>
+          <t>Guac Poster</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ceiling Fan</t>
+          <t>Small Plant</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Hard Taco Sign</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
         <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Arcade Cabinet</t>
+          <t>Soft Taco Sign</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jukebox</t>
+          <t>Pita Sign</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Royal Crown</t>
+          <t>Chef Hat</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Doorbell</t>
+          <t>Romano Poster</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Beef Alarm</t>
+          <t>Viking Helmet</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chicken Alarm</t>
+          <t>Beans Poster</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pork Alarm</t>
+          <t>Cactus</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>Mystery Poster</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Burgeria Poster</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Desert Plant</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>25</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Leafy Plant</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Onion Ring Poster</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>50</v>
+      </c>
+      <c r="C20" t="n">
+        <v>14</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pepper Lights</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>60</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Coffee Stand</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>65</v>
+      </c>
+      <c r="C22" t="n">
+        <v>24</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Newspaper Stand</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>80</v>
+      </c>
+      <c r="C23" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hypno Clock</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>80</v>
+      </c>
+      <c r="C24" t="n">
+        <v>31</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Gumball Machine</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>120</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Extra Burner</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>150</v>
+      </c>
+      <c r="C26" t="n">
+        <v>29</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ceiling Fan</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>150</v>
+      </c>
+      <c r="C27" t="n">
+        <v>15</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>150</v>
+      </c>
+      <c r="C28" t="n">
+        <v>19</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Extra Burner 2</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>200</v>
+      </c>
+      <c r="C29" t="n">
+        <v>30</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Arcade Cabinet</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>400</v>
+      </c>
+      <c r="C30" t="n">
+        <v>21</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jukebox</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>500</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Royal Crown</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C32" t="n">
+        <v>36</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Doorbell</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>30</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Beef Alarm</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>90</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25</v>
+      </c>
+      <c r="D34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chicken Alarm</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>90</v>
+      </c>
+      <c r="C35" t="n">
+        <v>26</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Pork Alarm</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>90</v>
+      </c>
+      <c r="C36" t="n">
+        <v>27</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Steak Alarm</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B37" t="n">
         <v>90</v>
       </c>
-      <c r="C16" t="n">
-        <v>13</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C37" t="n">
+        <v>28</v>
+      </c>
+      <c r="D37" t="n">
         <v>8</v>
       </c>
     </row>

--- a/tacomia.xlsx
+++ b/tacomia.xlsx
@@ -1421,7 +1421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1454,576 +1454,256 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Taco Hat</t>
+          <t>Coffee Stand</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gold Spatula</t>
+          <t>Newspaper Stand</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gold Knife</t>
+          <t>Hypno Clock</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sombrero</t>
+          <t>Gumball Machine</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>120</v>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Guac Poster</t>
+          <t>Extra Burner</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Small Plant</t>
+          <t>Ceiling Fan</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hard Taco Sign</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Soft Taco Sign</t>
+          <t>Extra Burner 2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pita Sign</t>
+          <t>Arcade Cabinet</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>400</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chef Hat</t>
+          <t>Jukebox</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Romano Poster</t>
+          <t>Royal Crown</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Viking Helmet</t>
+          <t>Doorbell</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Beans Poster</t>
+          <t>Beef Alarm</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>90</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
         <v>8</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cactus</t>
+          <t>Chicken Alarm</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>90</v>
+      </c>
+      <c r="C15" t="n">
         <v>10</v>
       </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mystery Poster</t>
+          <t>Pork Alarm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C16" t="n">
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Burgeria Poster</t>
+          <t>Steak Alarm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C17" t="n">
         <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Desert Plant</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>25</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Leafy Plant</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>40</v>
-      </c>
-      <c r="C19" t="n">
-        <v>18</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Onion Ring Poster</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>50</v>
-      </c>
-      <c r="C20" t="n">
-        <v>14</v>
-      </c>
-      <c r="D20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Pepper Lights</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>60</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Coffee Stand</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>65</v>
-      </c>
-      <c r="C22" t="n">
-        <v>24</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Newspaper Stand</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>80</v>
-      </c>
-      <c r="C23" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Hypno Clock</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>80</v>
-      </c>
-      <c r="C24" t="n">
-        <v>31</v>
-      </c>
-      <c r="D24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Gumball Machine</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>120</v>
-      </c>
-      <c r="C25" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Extra Burner</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>150</v>
-      </c>
-      <c r="C26" t="n">
-        <v>29</v>
-      </c>
-      <c r="D26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Ceiling Fan</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>150</v>
-      </c>
-      <c r="C27" t="n">
-        <v>15</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>150</v>
-      </c>
-      <c r="C28" t="n">
-        <v>19</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Extra Burner 2</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>200</v>
-      </c>
-      <c r="C29" t="n">
-        <v>30</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Arcade Cabinet</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>400</v>
-      </c>
-      <c r="C30" t="n">
-        <v>21</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Jukebox</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>500</v>
-      </c>
-      <c r="C31" t="n">
-        <v>23</v>
-      </c>
-      <c r="D31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Royal Crown</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C32" t="n">
-        <v>36</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Doorbell</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>30</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Beef Alarm</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>90</v>
-      </c>
-      <c r="C34" t="n">
-        <v>25</v>
-      </c>
-      <c r="D34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Chicken Alarm</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>90</v>
-      </c>
-      <c r="C35" t="n">
-        <v>26</v>
-      </c>
-      <c r="D35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Pork Alarm</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>90</v>
-      </c>
-      <c r="C36" t="n">
-        <v>27</v>
-      </c>
-      <c r="D36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Steak Alarm</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>90</v>
-      </c>
-      <c r="C37" t="n">
-        <v>28</v>
-      </c>
-      <c r="D37" t="n">
         <v>8</v>
       </c>
     </row>

--- a/tacomia.xlsx
+++ b/tacomia.xlsx
@@ -1421,7 +1421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1454,14 +1454,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Coffee Stand</t>
+          <t>Pepper Lights</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
@@ -1470,14 +1470,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Newspaper Stand</t>
+          <t>Coffee Stand</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
@@ -1486,14 +1486,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hypno Clock</t>
+          <t>Newspaper Stand</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>80</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
@@ -1502,14 +1502,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gumball Machine</t>
+          <t>Hypno Clock</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
         <v>7</v>
@@ -1518,14 +1518,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Extra Burner</t>
+          <t>Gumball Machine</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
@@ -1534,14 +1534,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ceiling Fan</t>
+          <t>Extra Burner</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>7</v>
@@ -1550,7 +1550,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Ceiling Fan</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1566,14 +1566,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Extra Burner 2</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -1582,14 +1582,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Arcade Cabinet</t>
+          <t>Extra Burner 2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
         <v>7</v>
@@ -1598,14 +1598,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jukebox</t>
+          <t>Arcade Cabinet</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>7</v>
@@ -1614,14 +1614,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Royal Crown</t>
+          <t>Jukebox</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
         <v>7</v>
@@ -1630,30 +1630,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Doorbell</t>
+          <t>Royal Crown</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Beef Alarm</t>
+          <t>Doorbell</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>8</v>
@@ -1662,7 +1662,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chicken Alarm</t>
+          <t>Beef Alarm</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1678,7 +1678,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pork Alarm</t>
+          <t>Chicken Alarm</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1694,7 +1694,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Steak Alarm</t>
+          <t>Pork Alarm</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1704,6 +1704,22 @@
         <v>12</v>
       </c>
       <c r="D17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Steak Alarm</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>90</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13</v>
+      </c>
+      <c r="D18" t="n">
         <v>8</v>
       </c>
     </row>
